--- a/public/download/FAX.xlsx
+++ b/public/download/FAX.xlsx
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{fax_sender}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FAX MAIL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -196,24 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{nursing_home.name}の{last_name}　{first_name}様の</t>
-    <rPh sb="44" eb="45">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{nursing_home.name}　御中</t>
-    <rPh sb="20" eb="22">
-      <t>オンチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yyyy年mm月(w)　○○：〇〇　検査開始。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検査当日のお食事、服薬については特に制限はございません。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -227,14 +205,6 @@
   </si>
   <si>
     <t>検査内容：CT(脳から肺)これは変数にする！！！</t>
-  </si>
-  <si>
-    <t>TEL：{phone_number}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAX： {fax_number}</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>&lt;検査日&gt;</t>
@@ -267,10 +237,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FAX番号：{fax_number}　　　　　　　　　{number_of_documents_sent}枚</t>
-    <rPh sb="53" eb="54">
+    <t>$fax_sender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$nursing_home.name　御中</t>
+    <rPh sb="19" eb="21">
+      <t>オンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAX番号：$fax_number　　　　　　　　　$number_of_documents_sent枚</t>
+    <rPh sb="51" eb="52">
       <t>マイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL：$phone_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAX： $fax_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$nursing_home.nameの$last_name　$first_name様の</t>
+    <rPh sb="41" eb="42">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yyyy年mm月(w)　○○：〇〇　検査開始。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -521,53 +521,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -587,6 +545,48 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,7 +870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:AA27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -880,422 +882,422 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="B2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
+      <c r="B2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
       <c r="X2" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
+      <c r="B4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
     </row>
     <row r="5" spans="2:28" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
     </row>
     <row r="6" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
+      <c r="B7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
     </row>
     <row r="8" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
     </row>
     <row r="10" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
+      <c r="B12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
+      <c r="B13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
     </row>
     <row r="15" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
     </row>
     <row r="16" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
@@ -1359,7 +1361,7 @@
     </row>
     <row r="18" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -1510,7 +1512,7 @@
     </row>
     <row r="23" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -1540,575 +1542,575 @@
       <c r="AB23" s="25"/>
     </row>
     <row r="24" spans="2:28" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
     </row>
     <row r="25" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
-      <c r="C25" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
+      <c r="C25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
       <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="2:28" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
+      <c r="C27" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
       <c r="AB27" s="8"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
       <c r="AB28" s="8"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="C29" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
+      <c r="C29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
       <c r="AB29" s="8"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="C30" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
+      <c r="C30" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
       <c r="AB30" s="8"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
-      <c r="C31" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
+      <c r="C31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
       <c r="AB31" s="8"/>
     </row>
     <row r="32" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
-      <c r="C32" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
+      <c r="C32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
       <c r="AB32" s="8"/>
     </row>
     <row r="33" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
       <c r="AB33" s="8"/>
     </row>
     <row r="34" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
       <c r="AB34" s="8"/>
     </row>
     <row r="35" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
       <c r="AB35" s="8"/>
     </row>
     <row r="36" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
       <c r="AB36" s="8"/>
     </row>
     <row r="37" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
       <c r="AB37" s="8"/>
     </row>
     <row r="38" spans="2:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
-      <c r="C38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
+      <c r="C38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
       <c r="AB38" s="10"/>
     </row>
     <row r="39" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
     </row>
     <row r="40" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
     </row>
     <row r="41" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
     </row>
     <row r="42" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
+      <c r="B42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
     </row>
     <row r="43" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
@@ -2172,6 +2174,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B13:AB13"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B3:AB3"/>
+    <mergeCell ref="B4:AB4"/>
+    <mergeCell ref="B5:AB5"/>
+    <mergeCell ref="B6:AB6"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="B8:AB8"/>
+    <mergeCell ref="B9:AB9"/>
+    <mergeCell ref="B10:AB10"/>
+    <mergeCell ref="B11:AB11"/>
+    <mergeCell ref="B12:AB12"/>
+    <mergeCell ref="B14:AB14"/>
+    <mergeCell ref="B15:AB15"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B17:AB17"/>
+    <mergeCell ref="B18:AB18"/>
+    <mergeCell ref="C28:AA28"/>
+    <mergeCell ref="C29:AA29"/>
+    <mergeCell ref="C30:AA30"/>
+    <mergeCell ref="B19:AB19"/>
+    <mergeCell ref="B20:AB20"/>
+    <mergeCell ref="B21:AB21"/>
+    <mergeCell ref="B22:AB22"/>
+    <mergeCell ref="B23:AB23"/>
     <mergeCell ref="B40:AB40"/>
     <mergeCell ref="B41:AB41"/>
     <mergeCell ref="B42:AB42"/>
@@ -2188,31 +2215,6 @@
     <mergeCell ref="C25:AA25"/>
     <mergeCell ref="C26:AA26"/>
     <mergeCell ref="C27:AA27"/>
-    <mergeCell ref="C28:AA28"/>
-    <mergeCell ref="C29:AA29"/>
-    <mergeCell ref="C30:AA30"/>
-    <mergeCell ref="B19:AB19"/>
-    <mergeCell ref="B20:AB20"/>
-    <mergeCell ref="B21:AB21"/>
-    <mergeCell ref="B22:AB22"/>
-    <mergeCell ref="B23:AB23"/>
-    <mergeCell ref="B14:AB14"/>
-    <mergeCell ref="B15:AB15"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B17:AB17"/>
-    <mergeCell ref="B18:AB18"/>
-    <mergeCell ref="B13:AB13"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B3:AB3"/>
-    <mergeCell ref="B4:AB4"/>
-    <mergeCell ref="B5:AB5"/>
-    <mergeCell ref="B6:AB6"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="B8:AB8"/>
-    <mergeCell ref="B9:AB9"/>
-    <mergeCell ref="B10:AB10"/>
-    <mergeCell ref="B11:AB11"/>
-    <mergeCell ref="B12:AB12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/public/download/FAX.xlsx
+++ b/public/download/FAX.xlsx
@@ -1,348 +1,173 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-yoshida\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="template_fax" sheetId="8" r:id="rId1"/>
+    <sheet name="template_fax" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">template_fax!$A$1:$AC$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'template_fax'!$A$1:$AC$43</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+  <si>
+    <t>FAX MAIL</t>
+  </si>
+  <si>
+    <t>01:11</t>
+  </si>
+  <si>
+    <t>2　御中</t>
+  </si>
+  <si>
+    <t>FAX番号：$fax_number　　　　　　　　　$number_of_documents_sent枚</t>
+  </si>
   <si>
     <t>医療法人　新産健会　ひがし在宅クリニック</t>
-    <rPh sb="0" eb="4">
-      <t>イリョウホウジン</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>シンサンケンカイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ザイタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>〒065-0026　札幌市東区北26条東6丁目1-2</t>
-    <rPh sb="10" eb="13">
-      <t>サッポロシ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒガシク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>チョウメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL：$phone_number</t>
+  </si>
+  <si>
+    <t>FAX： $fax_number</t>
   </si>
   <si>
     <t>いつも大変お世話になっております。</t>
-    <rPh sb="3" eb="5">
-      <t>タイヘン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2の$last_name　$first_name様の</t>
   </si>
   <si>
     <t>検査開始時間ですが下記のようになります。</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>検査開始20分前にご来院いただきますよう、お願い致します。</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ライイン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>イタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報保護の都合上、お名前を一部伏せさせていただきます。</t>
+  </si>
+  <si>
+    <t>&lt;検査日&gt;</t>
+  </si>
+  <si>
+    <t>yyyy年mm月(w)　○○：〇〇　検査開始。</t>
+  </si>
+  <si>
+    <t>検査当日のお食事、服薬については特に制限はございません。</t>
+  </si>
+  <si>
+    <t>保険証をお持ちください。金属がついていない服装でお越し下さい。</t>
+  </si>
+  <si>
+    <t>パット・リハパン・オムツを必要でしたら、替えのご用意をお願い致します。</t>
+  </si>
+  <si>
+    <t>検査内容：CT(脳から肺)これは変数にする！！！</t>
+  </si>
+  <si>
+    <t>検査場所：</t>
   </si>
   <si>
     <t>ご都合により検査が受けられなくなった場合は、</t>
-    <rPh sb="1" eb="3">
-      <t>ツゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>検査日前日の午前中までにご連絡願います。</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゼンジツ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ゴゼンチュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご不明点の点がございましたら、担当者までご連絡願います。</t>
   </si>
   <si>
     <t>以上</t>
-    <rPh sb="0" eb="2">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAX MAIL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>個人情報保護の都合上、お名前を一部伏せさせていただきます。</t>
-    <rPh sb="0" eb="2">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツゴウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検査当日のお食事、服薬については特に制限はございません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保険証をお持ちください。金属がついていない服装でお越し下さい。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パット・リハパン・オムツを必要でしたら、替えのご用意をお願い致します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検査内容：CT(脳から肺)これは変数にする！！！</t>
-  </si>
-  <si>
-    <t>&lt;検査日&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検査場所：</t>
-    <rPh sb="2" eb="4">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ご不明点の点がございましたら、担当者までご連絡願います。</t>
-    <rPh sb="1" eb="4">
-      <t>フメイテン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$fax_sender</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$nursing_home.name　御中</t>
-    <rPh sb="19" eb="21">
-      <t>オンチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAX番号：$fax_number　　　　　　　　　$number_of_documents_sent枚</t>
-    <rPh sb="51" eb="52">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TEL：$phone_number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAX： $fax_number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$nursing_home.nameの$last_name　$first_name様の</t>
-    <rPh sb="41" eb="42">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yyyy年mm月(w)　○○：〇〇　検査開始。</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="8">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
-      <charset val="128"/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
     </font>
     <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="HGS明朝E"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="HGS明朝E"/>
-      <family val="1"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,39 +187,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -402,17 +200,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
@@ -422,7 +220,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -430,31 +228,40 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -462,8 +269,17 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="hair">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -473,140 +289,97 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -616,39 +389,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,7 +456,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,163 +500,250 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1" topLeftCell="A4">
       <selection activeCell="C27" sqref="C27:AA27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="2.625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="28" width="2.625" style="2"/>
-    <col min="29" max="29" width="2.625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="2.625" style="2"/>
+    <col min="1" max="1" width="2.625" style="2"/>
+    <col min="2" max="2" width="2.625" style="2"/>
+    <col min="3" max="3" width="2.625" style="2"/>
+    <col min="4" max="4" width="2.625" style="2"/>
+    <col min="5" max="5" width="2.625" style="2"/>
+    <col min="6" max="6" width="2.625" style="2"/>
+    <col min="7" max="7" width="2.625" style="2"/>
+    <col min="8" max="8" width="2.625" style="2"/>
+    <col min="9" max="9" width="2.625" style="2"/>
+    <col min="10" max="10" width="2.625" style="2"/>
+    <col min="11" max="11" width="2.625" style="2"/>
+    <col min="12" max="12" width="2.625" style="2"/>
+    <col min="13" max="13" width="2.625" style="2"/>
+    <col min="14" max="14" width="2.625" style="2"/>
+    <col min="15" max="15" width="2.625" style="2"/>
+    <col min="16" max="16" width="2.625" style="2"/>
+    <col min="17" max="17" width="2.625" style="2"/>
+    <col min="18" max="18" width="2.625" style="2"/>
+    <col min="19" max="19" width="2.625" style="2"/>
+    <col min="20" max="20" width="2.625" style="2"/>
+    <col min="21" max="21" width="2.625" style="2"/>
+    <col min="22" max="22" width="2.625" style="2"/>
+    <col min="23" max="23" width="2.625" style="2"/>
+    <col min="24" max="24" width="2.625" style="2"/>
+    <col min="25" max="25" width="2.625" style="2"/>
+    <col min="26" max="26" width="2.625" style="2"/>
+    <col min="27" max="27" width="2.625" style="2"/>
+    <col min="28" max="28" width="2.625" style="2"/>
+    <col min="29" max="29" width="2.625" style="2"/>
+    <col min="30" max="30" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" customHeight="1" ht="30.75">
+      <c r="A2"/>
       <c r="B2" s="29" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -907,10 +767,17 @@
       <c r="V2" s="29"/>
       <c r="W2" s="29"/>
       <c r="X2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+    </row>
+    <row r="3" spans="1:30" customHeight="1" ht="4.5">
+      <c r="A3"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -938,10 +805,13 @@
       <c r="Z3" s="30"/>
       <c r="AA3" s="30"/>
       <c r="AB3" s="30"/>
-    </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC3"/>
+      <c r="AD3"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="2"/>
       <c r="B4" s="22" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -969,8 +839,11 @@
       <c r="Z4" s="22"/>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22"/>
-    </row>
-    <row r="5" spans="2:28" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" customHeight="1" ht="4.5">
+      <c r="A5"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -998,8 +871,11 @@
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
-    </row>
-    <row r="6" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC5"/>
+      <c r="AD5"/>
+    </row>
+    <row r="6" spans="1:30" customHeight="1" ht="4.5">
+      <c r="A6"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -1027,10 +903,13 @@
       <c r="Z6" s="31"/>
       <c r="AA6" s="31"/>
       <c r="AB6" s="31"/>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC6"/>
+      <c r="AD6"/>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="2"/>
       <c r="B7" s="32" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -1058,8 +937,11 @@
       <c r="Z7" s="32"/>
       <c r="AA7" s="32"/>
       <c r="AB7" s="32"/>
-    </row>
-    <row r="8" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" customHeight="1" ht="4.5">
+      <c r="A8"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -1087,8 +969,11 @@
       <c r="Z8" s="33"/>
       <c r="AA8" s="33"/>
       <c r="AB8" s="33"/>
-    </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC8"/>
+      <c r="AD8"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="2"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -1116,10 +1001,13 @@
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="34"/>
-    </row>
-    <row r="10" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" customHeight="1" ht="22.5">
+      <c r="A10"/>
       <c r="B10" s="35" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -1147,10 +1035,13 @@
       <c r="Z10" s="35"/>
       <c r="AA10" s="35"/>
       <c r="AB10" s="35"/>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC10"/>
+      <c r="AD10"/>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="2"/>
       <c r="B11" s="28" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -1178,10 +1069,13 @@
       <c r="Z11" s="28"/>
       <c r="AA11" s="28"/>
       <c r="AB11" s="28"/>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="2"/>
       <c r="B12" s="28" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -1209,10 +1103,13 @@
       <c r="Z12" s="28"/>
       <c r="AA12" s="28"/>
       <c r="AB12" s="28"/>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="2"/>
       <c r="B13" s="28" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -1240,8 +1137,11 @@
       <c r="Z13" s="28"/>
       <c r="AA13" s="28"/>
       <c r="AB13" s="28"/>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="2"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -1269,8 +1169,11 @@
       <c r="Z14" s="26"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="26"/>
-    </row>
-    <row r="15" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" customHeight="1" ht="4.5">
+      <c r="A15"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -1298,10 +1201,13 @@
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
       <c r="AB15" s="27"/>
-    </row>
-    <row r="16" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="AC15"/>
+      <c r="AD15"/>
+    </row>
+    <row r="16" spans="1:30" customHeight="1" ht="19.5">
+      <c r="A16"/>
       <c r="B16" s="25" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -1329,8 +1235,11 @@
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
-    </row>
-    <row r="17" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC16"/>
+      <c r="AD16"/>
+    </row>
+    <row r="17" spans="1:30" customHeight="1" ht="4.5">
+      <c r="A17"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -1358,10 +1267,13 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
-    </row>
-    <row r="18" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="AC17"/>
+      <c r="AD17"/>
+    </row>
+    <row r="18" spans="1:30" customHeight="1" ht="19.5">
+      <c r="A18"/>
       <c r="B18" s="25" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -1389,8 +1301,11 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="25"/>
       <c r="AB18" s="25"/>
-    </row>
-    <row r="19" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC18"/>
+      <c r="AD18"/>
+    </row>
+    <row r="19" spans="1:30" customHeight="1" ht="4.5">
+      <c r="A19"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -1418,10 +1333,13 @@
       <c r="Z19" s="25"/>
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
-    </row>
-    <row r="20" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="AC19"/>
+      <c r="AD19"/>
+    </row>
+    <row r="20" spans="1:30" customHeight="1" ht="19.5">
+      <c r="A20"/>
       <c r="B20" s="25" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -1449,10 +1367,13 @@
       <c r="Z20" s="25"/>
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
-    </row>
-    <row r="21" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="AC20"/>
+      <c r="AD20"/>
+    </row>
+    <row r="21" spans="1:30" customHeight="1" ht="19.5">
+      <c r="A21"/>
       <c r="B21" s="25" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -1480,8 +1401,11 @@
       <c r="Z21" s="25"/>
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
-    </row>
-    <row r="22" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="AC21"/>
+      <c r="AD21"/>
+    </row>
+    <row r="22" spans="1:30" customHeight="1" ht="19.5">
+      <c r="A22"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -1509,10 +1433,13 @@
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
-    </row>
-    <row r="23" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="AC22"/>
+      <c r="AD22"/>
+    </row>
+    <row r="23" spans="1:30" customHeight="1" ht="19.5">
+      <c r="A23"/>
       <c r="B23" s="25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -1540,8 +1467,11 @@
       <c r="Z23" s="25"/>
       <c r="AA23" s="25"/>
       <c r="AB23" s="25"/>
-    </row>
-    <row r="24" spans="2:28" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC23"/>
+      <c r="AD23"/>
+    </row>
+    <row r="24" spans="1:30" customHeight="1" ht="6">
+      <c r="A24"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1569,11 +1499,14 @@
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
-    </row>
-    <row r="25" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AC24"/>
+      <c r="AD24"/>
+    </row>
+    <row r="25" spans="1:30" customHeight="1" ht="22.5">
+      <c r="A25"/>
       <c r="B25" s="3"/>
       <c r="C25" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -1600,8 +1533,11 @@
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="4"/>
-    </row>
-    <row r="26" spans="2:28" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC25"/>
+      <c r="AD25"/>
+    </row>
+    <row r="26" spans="1:30" customHeight="1" ht="6">
+      <c r="A26"/>
       <c r="B26" s="5"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -1629,11 +1565,14 @@
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC26"/>
+      <c r="AD26"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="2"/>
       <c r="B27" s="7"/>
       <c r="C27" s="22" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -1660,8 +1599,11 @@
       <c r="Z27" s="22"/>
       <c r="AA27" s="22"/>
       <c r="AB27" s="8"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="2"/>
       <c r="B28" s="7"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -1689,11 +1631,14 @@
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
       <c r="AB28" s="8"/>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="2"/>
       <c r="B29" s="7"/>
       <c r="C29" s="24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -1720,11 +1665,14 @@
       <c r="Z29" s="24"/>
       <c r="AA29" s="24"/>
       <c r="AB29" s="8"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="2"/>
       <c r="B30" s="7"/>
       <c r="C30" s="24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -1751,11 +1699,14 @@
       <c r="Z30" s="24"/>
       <c r="AA30" s="24"/>
       <c r="AB30" s="8"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="2"/>
       <c r="B31" s="7"/>
       <c r="C31" s="19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -1782,11 +1733,14 @@
       <c r="Z31" s="19"/>
       <c r="AA31" s="19"/>
       <c r="AB31" s="8"/>
-    </row>
-    <row r="32" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+    </row>
+    <row r="32" spans="1:30" customHeight="1" ht="19.5">
+      <c r="A32"/>
       <c r="B32" s="7"/>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -1813,8 +1767,11 @@
       <c r="Z32" s="16"/>
       <c r="AA32" s="16"/>
       <c r="AB32" s="8"/>
-    </row>
-    <row r="33" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" spans="1:30" customHeight="1" ht="19.5">
+      <c r="A33"/>
       <c r="B33" s="7"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -1842,8 +1799,11 @@
       <c r="Z33" s="16"/>
       <c r="AA33" s="16"/>
       <c r="AB33" s="8"/>
-    </row>
-    <row r="34" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" spans="1:30" customHeight="1" ht="19.5">
+      <c r="A34"/>
       <c r="B34" s="7"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -1871,8 +1831,11 @@
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
       <c r="AB34" s="8"/>
-    </row>
-    <row r="35" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="AC34"/>
+      <c r="AD34"/>
+    </row>
+    <row r="35" spans="1:30" customHeight="1" ht="19.5">
+      <c r="A35"/>
       <c r="B35" s="7"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1900,8 +1863,11 @@
       <c r="Z35" s="15"/>
       <c r="AA35" s="15"/>
       <c r="AB35" s="8"/>
-    </row>
-    <row r="36" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="AC35"/>
+      <c r="AD35"/>
+    </row>
+    <row r="36" spans="1:30" customHeight="1" ht="19.5">
+      <c r="A36"/>
       <c r="B36" s="7"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -1929,8 +1895,11 @@
       <c r="Z36" s="16"/>
       <c r="AA36" s="16"/>
       <c r="AB36" s="8"/>
-    </row>
-    <row r="37" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" spans="1:30" customHeight="1" ht="19.5">
+      <c r="A37"/>
       <c r="B37" s="7"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -1958,11 +1927,14 @@
       <c r="Z37" s="16"/>
       <c r="AA37" s="16"/>
       <c r="AB37" s="8"/>
-    </row>
-    <row r="38" spans="2:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" spans="1:30" customHeight="1" ht="20.25">
+      <c r="A38"/>
       <c r="B38" s="9"/>
       <c r="C38" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
@@ -1989,10 +1961,13 @@
       <c r="Z38" s="17"/>
       <c r="AA38" s="17"/>
       <c r="AB38" s="10"/>
-    </row>
-    <row r="39" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AC38"/>
+      <c r="AD38"/>
+    </row>
+    <row r="39" spans="1:30" customHeight="1" ht="22.5">
+      <c r="A39"/>
       <c r="B39" s="18" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -2020,10 +1995,13 @@
       <c r="Z39" s="18"/>
       <c r="AA39" s="18"/>
       <c r="AB39" s="18"/>
-    </row>
-    <row r="40" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AC39"/>
+      <c r="AD39"/>
+    </row>
+    <row r="40" spans="1:30" customHeight="1" ht="22.5">
+      <c r="A40"/>
       <c r="B40" s="13" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -2051,8 +2029,11 @@
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
-    </row>
-    <row r="41" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" spans="1:30" customHeight="1" ht="22.5">
+      <c r="A41"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -2080,10 +2061,13 @@
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
       <c r="AB41" s="13"/>
-    </row>
-    <row r="42" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" spans="1:30" customHeight="1" ht="22.5">
+      <c r="A42"/>
       <c r="B42" s="13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -2111,8 +2095,11 @@
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
       <c r="AB42" s="13"/>
-    </row>
-    <row r="43" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" spans="1:30" customHeight="1" ht="19.5">
+      <c r="A43"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -2139,11 +2126,14 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="12" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AB43" s="12"/>
-    </row>
-    <row r="44" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" spans="1:30" customHeight="1" ht="22.5">
+      <c r="A44"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -2171,9 +2161,11 @@
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
       <c r="AB44" s="11"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells>
     <mergeCell ref="B13:AB13"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="B3:AB3"/>
@@ -2216,9 +2208,17 @@
     <mergeCell ref="C26:AA26"/>
     <mergeCell ref="C27:AA27"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
-  <printOptions horizontalCentered="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/download/FAX.xlsx
+++ b/public/download/FAX.xlsx
@@ -1,173 +1,348 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-yoshida\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="template_fax" sheetId="1" r:id="rId4"/>
+    <sheet name="template_fax" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'template_fax'!$A$1:$AC$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">template_fax!$A$1:$AC$43</definedName>
   </definedNames>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>医療法人　新産健会　ひがし在宅クリニック</t>
+    <rPh sb="0" eb="4">
+      <t>イリョウホウジン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シンサンケンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ザイタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〒065-0026　札幌市東区北26条東6丁目1-2</t>
+    <rPh sb="10" eb="13">
+      <t>サッポロシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒガシク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつも大変お世話になっております。</t>
+    <rPh sb="3" eb="5">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査開始時間ですが下記のようになります。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査開始20分前にご来院いただきますよう、お願い致します。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ライイン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご都合により検査が受けられなくなった場合は、</t>
+    <rPh sb="1" eb="3">
+      <t>ツゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査日前日の午前中までにご連絡願います。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンジツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ゴゼンチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>FAX MAIL</t>
-  </si>
-  <si>
-    <t>01:11</t>
-  </si>
-  <si>
-    <t>2　御中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報保護の都合上、お名前を一部伏せさせていただきます。</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査当日のお食事、服薬については特に制限はございません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保険証をお持ちください。金属がついていない服装でお越し下さい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パット・リハパン・オムツを必要でしたら、替えのご用意をお願い致します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査内容：CT(脳から肺)これは変数にする！！！</t>
+  </si>
+  <si>
+    <t>&lt;検査日&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査場所：</t>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご不明点の点がございましたら、担当者までご連絡願います。</t>
+    <rPh sb="1" eb="4">
+      <t>フメイテン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$fax_sender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$nursing_home.name　御中</t>
+    <rPh sb="19" eb="21">
+      <t>オンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>FAX番号：$fax_number　　　　　　　　　$number_of_documents_sent枚</t>
-  </si>
-  <si>
-    <t>医療法人　新産健会　ひがし在宅クリニック</t>
-  </si>
-  <si>
-    <t>〒065-0026　札幌市東区北26条東6丁目1-2</t>
+    <rPh sb="51" eb="52">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>TEL：$phone_number</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>FAX： $fax_number</t>
-  </si>
-  <si>
-    <t>いつも大変お世話になっております。</t>
-  </si>
-  <si>
-    <t>2の$last_name　$first_name様の</t>
-  </si>
-  <si>
-    <t>検査開始時間ですが下記のようになります。</t>
-  </si>
-  <si>
-    <t>検査開始20分前にご来院いただきますよう、お願い致します。</t>
-  </si>
-  <si>
-    <t>個人情報保護の都合上、お名前を一部伏せさせていただきます。</t>
-  </si>
-  <si>
-    <t>&lt;検査日&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$nursing_home.nameの$last_name　$first_name様の</t>
+    <rPh sb="41" eb="42">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>yyyy年mm月(w)　○○：〇〇　検査開始。</t>
-  </si>
-  <si>
-    <t>検査当日のお食事、服薬については特に制限はございません。</t>
-  </si>
-  <si>
-    <t>保険証をお持ちください。金属がついていない服装でお越し下さい。</t>
-  </si>
-  <si>
-    <t>パット・リハパン・オムツを必要でしたら、替えのご用意をお願い致します。</t>
-  </si>
-  <si>
-    <t>検査内容：CT(脳から肺)これは変数にする！！！</t>
-  </si>
-  <si>
-    <t>検査場所：</t>
-  </si>
-  <si>
-    <t>ご都合により検査が受けられなくなった場合は、</t>
-  </si>
-  <si>
-    <t>検査日前日の午前中までにご連絡願います。</t>
-  </si>
-  <si>
-    <t>ご不明点の点がございましたら、担当者までご連絡願います。</t>
-  </si>
-  <si>
-    <t>以上</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
+      <sz val="6"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="26"/>
-      <color rgb="FF000000"/>
-      <name val="HGS明朝E"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="HGS明朝E"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,12 +362,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -200,17 +402,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -220,7 +422,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -228,40 +430,31 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -269,17 +462,8 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="hair">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -289,97 +473,140 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="36">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -389,39 +616,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,7 +683,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,250 +727,163 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AD44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1" topLeftCell="A4">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="C27" sqref="C27:AA27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="2.625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="2"/>
-    <col min="2" max="2" width="2.625" style="2"/>
-    <col min="3" max="3" width="2.625" style="2"/>
-    <col min="4" max="4" width="2.625" style="2"/>
-    <col min="5" max="5" width="2.625" style="2"/>
-    <col min="6" max="6" width="2.625" style="2"/>
-    <col min="7" max="7" width="2.625" style="2"/>
-    <col min="8" max="8" width="2.625" style="2"/>
-    <col min="9" max="9" width="2.625" style="2"/>
-    <col min="10" max="10" width="2.625" style="2"/>
-    <col min="11" max="11" width="2.625" style="2"/>
-    <col min="12" max="12" width="2.625" style="2"/>
-    <col min="13" max="13" width="2.625" style="2"/>
-    <col min="14" max="14" width="2.625" style="2"/>
-    <col min="15" max="15" width="2.625" style="2"/>
-    <col min="16" max="16" width="2.625" style="2"/>
-    <col min="17" max="17" width="2.625" style="2"/>
-    <col min="18" max="18" width="2.625" style="2"/>
-    <col min="19" max="19" width="2.625" style="2"/>
-    <col min="20" max="20" width="2.625" style="2"/>
-    <col min="21" max="21" width="2.625" style="2"/>
-    <col min="22" max="22" width="2.625" style="2"/>
-    <col min="23" max="23" width="2.625" style="2"/>
-    <col min="24" max="24" width="2.625" style="2"/>
-    <col min="25" max="25" width="2.625" style="2"/>
-    <col min="26" max="26" width="2.625" style="2"/>
-    <col min="27" max="27" width="2.625" style="2"/>
-    <col min="28" max="28" width="2.625" style="2"/>
-    <col min="29" max="29" width="2.625" style="2"/>
-    <col min="30" max="30" width="2.625" style="2"/>
+    <col min="1" max="28" width="2.625" style="2"/>
+    <col min="29" max="29" width="2.625" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" customHeight="1" ht="30.75">
-      <c r="A2"/>
+    <row r="2" spans="2:28" ht="30.75" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -767,17 +907,10 @@
       <c r="V2" s="29"/>
       <c r="W2" s="29"/>
       <c r="X2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-    </row>
-    <row r="3" spans="1:30" customHeight="1" ht="4.5">
-      <c r="A3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -805,13 +938,10 @@
       <c r="Z3" s="30"/>
       <c r="AA3" s="30"/>
       <c r="AB3" s="30"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="2"/>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -839,11 +969,8 @@
       <c r="Z4" s="22"/>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-    </row>
-    <row r="5" spans="1:30" customHeight="1" ht="4.5">
-      <c r="A5"/>
+    </row>
+    <row r="5" spans="2:28" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -871,11 +998,8 @@
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-    </row>
-    <row r="6" spans="1:30" customHeight="1" ht="4.5">
-      <c r="A6"/>
+    </row>
+    <row r="6" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -903,13 +1027,10 @@
       <c r="Z6" s="31"/>
       <c r="AA6" s="31"/>
       <c r="AB6" s="31"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="2"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -937,11 +1058,8 @@
       <c r="Z7" s="32"/>
       <c r="AA7" s="32"/>
       <c r="AB7" s="32"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-    </row>
-    <row r="8" spans="1:30" customHeight="1" ht="4.5">
-      <c r="A8"/>
+    </row>
+    <row r="8" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -969,11 +1087,8 @@
       <c r="Z8" s="33"/>
       <c r="AA8" s="33"/>
       <c r="AB8" s="33"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="2"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -1001,13 +1116,10 @@
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="34"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-    </row>
-    <row r="10" spans="1:30" customHeight="1" ht="22.5">
-      <c r="A10"/>
+    </row>
+    <row r="10" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B10" s="35" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -1035,13 +1147,10 @@
       <c r="Z10" s="35"/>
       <c r="AA10" s="35"/>
       <c r="AB10" s="35"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="2"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -1069,13 +1178,10 @@
       <c r="Z11" s="28"/>
       <c r="AA11" s="28"/>
       <c r="AB11" s="28"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="2"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -1103,13 +1209,10 @@
       <c r="Z12" s="28"/>
       <c r="AA12" s="28"/>
       <c r="AB12" s="28"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="2"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -1137,11 +1240,8 @@
       <c r="Z13" s="28"/>
       <c r="AA13" s="28"/>
       <c r="AB13" s="28"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="2"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -1169,11 +1269,8 @@
       <c r="Z14" s="26"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="26"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-    </row>
-    <row r="15" spans="1:30" customHeight="1" ht="4.5">
-      <c r="A15"/>
+    </row>
+    <row r="15" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -1201,13 +1298,10 @@
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
       <c r="AB15" s="27"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
-    </row>
-    <row r="16" spans="1:30" customHeight="1" ht="19.5">
-      <c r="A16"/>
+    </row>
+    <row r="16" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -1235,11 +1329,8 @@
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-    </row>
-    <row r="17" spans="1:30" customHeight="1" ht="4.5">
-      <c r="A17"/>
+    </row>
+    <row r="17" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -1267,13 +1358,10 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-    </row>
-    <row r="18" spans="1:30" customHeight="1" ht="19.5">
-      <c r="A18"/>
+    </row>
+    <row r="18" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -1301,11 +1389,8 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="25"/>
       <c r="AB18" s="25"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-    </row>
-    <row r="19" spans="1:30" customHeight="1" ht="4.5">
-      <c r="A19"/>
+    </row>
+    <row r="19" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -1333,13 +1418,10 @@
       <c r="Z19" s="25"/>
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-    </row>
-    <row r="20" spans="1:30" customHeight="1" ht="19.5">
-      <c r="A20"/>
+    </row>
+    <row r="20" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B20" s="25" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -1367,13 +1449,10 @@
       <c r="Z20" s="25"/>
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-    </row>
-    <row r="21" spans="1:30" customHeight="1" ht="19.5">
-      <c r="A21"/>
+    </row>
+    <row r="21" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -1401,11 +1480,8 @@
       <c r="Z21" s="25"/>
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-    </row>
-    <row r="22" spans="1:30" customHeight="1" ht="19.5">
-      <c r="A22"/>
+    </row>
+    <row r="22" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -1433,13 +1509,10 @@
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-    </row>
-    <row r="23" spans="1:30" customHeight="1" ht="19.5">
-      <c r="A23"/>
+    </row>
+    <row r="23" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -1467,11 +1540,8 @@
       <c r="Z23" s="25"/>
       <c r="AA23" s="25"/>
       <c r="AB23" s="25"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-    </row>
-    <row r="24" spans="1:30" customHeight="1" ht="6">
-      <c r="A24"/>
+    </row>
+    <row r="24" spans="2:28" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1499,14 +1569,11 @@
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-    </row>
-    <row r="25" spans="1:30" customHeight="1" ht="22.5">
-      <c r="A25"/>
+    </row>
+    <row r="25" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -1533,11 +1600,8 @@
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="4"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-    </row>
-    <row r="26" spans="1:30" customHeight="1" ht="6">
-      <c r="A26"/>
+    </row>
+    <row r="26" spans="2:28" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -1565,14 +1629,11 @@
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-    </row>
-    <row r="27" spans="1:30">
-      <c r="A27" s="2"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="22" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -1599,11 +1660,8 @@
       <c r="Z27" s="22"/>
       <c r="AA27" s="22"/>
       <c r="AB27" s="8"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-    </row>
-    <row r="28" spans="1:30">
-      <c r="A28" s="2"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -1631,14 +1689,11 @@
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-    </row>
-    <row r="29" spans="1:30">
-      <c r="A29" s="2"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -1665,14 +1720,11 @@
       <c r="Z29" s="24"/>
       <c r="AA29" s="24"/>
       <c r="AB29" s="8"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="A30" s="2"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -1699,14 +1751,11 @@
       <c r="Z30" s="24"/>
       <c r="AA30" s="24"/>
       <c r="AB30" s="8"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="2"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
       <c r="C31" s="19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -1733,14 +1782,11 @@
       <c r="Z31" s="19"/>
       <c r="AA31" s="19"/>
       <c r="AB31" s="8"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-    </row>
-    <row r="32" spans="1:30" customHeight="1" ht="19.5">
-      <c r="A32"/>
+    </row>
+    <row r="32" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -1767,11 +1813,8 @@
       <c r="Z32" s="16"/>
       <c r="AA32" s="16"/>
       <c r="AB32" s="8"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-    </row>
-    <row r="33" spans="1:30" customHeight="1" ht="19.5">
-      <c r="A33"/>
+    </row>
+    <row r="33" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -1799,11 +1842,8 @@
       <c r="Z33" s="16"/>
       <c r="AA33" s="16"/>
       <c r="AB33" s="8"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-    </row>
-    <row r="34" spans="1:30" customHeight="1" ht="19.5">
-      <c r="A34"/>
+    </row>
+    <row r="34" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -1831,11 +1871,8 @@
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
       <c r="AB34" s="8"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-    </row>
-    <row r="35" spans="1:30" customHeight="1" ht="19.5">
-      <c r="A35"/>
+    </row>
+    <row r="35" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1863,11 +1900,8 @@
       <c r="Z35" s="15"/>
       <c r="AA35" s="15"/>
       <c r="AB35" s="8"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-    </row>
-    <row r="36" spans="1:30" customHeight="1" ht="19.5">
-      <c r="A36"/>
+    </row>
+    <row r="36" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -1895,11 +1929,8 @@
       <c r="Z36" s="16"/>
       <c r="AA36" s="16"/>
       <c r="AB36" s="8"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-    </row>
-    <row r="37" spans="1:30" customHeight="1" ht="19.5">
-      <c r="A37"/>
+    </row>
+    <row r="37" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -1927,14 +1958,11 @@
       <c r="Z37" s="16"/>
       <c r="AA37" s="16"/>
       <c r="AB37" s="8"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-    </row>
-    <row r="38" spans="1:30" customHeight="1" ht="20.25">
-      <c r="A38"/>
+    </row>
+    <row r="38" spans="2:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
       <c r="C38" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
@@ -1961,13 +1989,10 @@
       <c r="Z38" s="17"/>
       <c r="AA38" s="17"/>
       <c r="AB38" s="10"/>
-      <c r="AC38"/>
-      <c r="AD38"/>
-    </row>
-    <row r="39" spans="1:30" customHeight="1" ht="22.5">
-      <c r="A39"/>
+    </row>
+    <row r="39" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -1995,13 +2020,10 @@
       <c r="Z39" s="18"/>
       <c r="AA39" s="18"/>
       <c r="AB39" s="18"/>
-      <c r="AC39"/>
-      <c r="AD39"/>
-    </row>
-    <row r="40" spans="1:30" customHeight="1" ht="22.5">
-      <c r="A40"/>
+    </row>
+    <row r="40" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -2029,11 +2051,8 @@
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
-      <c r="AC40"/>
-      <c r="AD40"/>
-    </row>
-    <row r="41" spans="1:30" customHeight="1" ht="22.5">
-      <c r="A41"/>
+    </row>
+    <row r="41" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -2061,13 +2080,10 @@
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
       <c r="AB41" s="13"/>
-      <c r="AC41"/>
-      <c r="AD41"/>
-    </row>
-    <row r="42" spans="1:30" customHeight="1" ht="22.5">
-      <c r="A42"/>
+    </row>
+    <row r="42" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -2095,11 +2111,8 @@
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
       <c r="AB42" s="13"/>
-      <c r="AC42"/>
-      <c r="AD42"/>
-    </row>
-    <row r="43" spans="1:30" customHeight="1" ht="19.5">
-      <c r="A43"/>
+    </row>
+    <row r="43" spans="2:28" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -2126,14 +2139,11 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="12" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AB43" s="12"/>
-      <c r="AC43"/>
-      <c r="AD43"/>
-    </row>
-    <row r="44" spans="1:30" customHeight="1" ht="22.5">
-      <c r="A44"/>
+    </row>
+    <row r="44" spans="2:28" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -2161,11 +2171,9 @@
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
       <c r="AB44" s="11"/>
-      <c r="AC44"/>
-      <c r="AD44"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="41">
     <mergeCell ref="B13:AB13"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="B3:AB3"/>
@@ -2208,17 +2216,9 @@
     <mergeCell ref="C26:AA26"/>
     <mergeCell ref="C27:AA27"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>